--- a/data/trans_camb/P19C05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-4.450159811692556</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-4.642361756501639</v>
+        <v>-4.642361756501641</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.031468792103825</v>
@@ -664,7 +664,7 @@
         <v>-5.273651651753676</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-4.377085075147765</v>
+        <v>-4.377085075147767</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.04688245148554</v>
+        <v>-2.38968252074992</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.649375755186934</v>
+        <v>-8.794427436987853</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.430757073089401</v>
+        <v>-8.267019767765138</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.311918719836036</v>
+        <v>-2.832097874934857</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-10.05610665327717</v>
+        <v>-10.27381231900221</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.986230835972147</v>
+        <v>-8.047807447857673</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.9012675905863317</v>
+        <v>-1.337440107106289</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-8.156569742919853</v>
+        <v>-8.233891303895927</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.039283699564451</v>
+        <v>-6.942463341491489</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.056842075917258</v>
+        <v>6.681090736999328</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.1786155534922987</v>
+        <v>-0.3396400981730184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.112632513829876</v>
+        <v>-0.7557758349136573</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.585140589514343</v>
+        <v>6.734688132154087</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.609779846876173</v>
+        <v>-1.470159537104001</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.3564112307157437</v>
+        <v>-0.3320395311681792</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.03156199022516</v>
+        <v>5.039362932530778</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.408789246014121</v>
+        <v>-2.095639464745567</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.750725492641517</v>
+        <v>-1.711331824355135</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.3006985508155376</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3136856903147004</v>
+        <v>-0.3136856903147006</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1143544660481768</v>
@@ -769,7 +769,7 @@
         <v>-0.3221537044872886</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2673847771773034</v>
+        <v>-0.2673847771773035</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.174976475994721</v>
+        <v>-0.1436260773882745</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5088870953720572</v>
+        <v>-0.5116507098026489</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4895923924465134</v>
+        <v>-0.4866624271409959</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1127625638571162</v>
+        <v>-0.1369114544000258</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4938079237910812</v>
+        <v>-0.5052418536493124</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3860104994620274</v>
+        <v>-0.3803816113442372</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.05146331998244678</v>
+        <v>-0.07759893762680065</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4650253221936838</v>
+        <v>-0.4612551813471555</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3843187272542962</v>
+        <v>-0.3893323141446148</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4768206477267954</v>
+        <v>0.5170840181201207</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.008162305359328667</v>
+        <v>-0.02782860302625241</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.08414413114592387</v>
+        <v>-0.0617560102731818</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4258057887852868</v>
+        <v>0.4410083467619549</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.08730302143591424</v>
+        <v>-0.09298433449605475</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.02041732649355774</v>
+        <v>-0.02218022949084339</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3422115965227446</v>
+        <v>0.347207111696502</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1599340555051001</v>
+        <v>-0.1389936361756862</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1184370744842015</v>
+        <v>-0.1122209815632124</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.918770300237843</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-4.351333919067624</v>
+        <v>-4.351333919067622</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.18283539937024</v>
@@ -869,7 +869,7 @@
         <v>-3.444905930426562</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-6.276972204472228</v>
+        <v>-6.276972204472229</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.719602178384705</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.485360095905574</v>
+        <v>-3.127646334007718</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.431328814471065</v>
+        <v>-5.408724374461841</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.62485908474371</v>
+        <v>-7.506306796358351</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3780686069840125</v>
+        <v>-0.9026036759229755</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.917581026714889</v>
+        <v>-6.84122099550131</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.351240564230828</v>
+        <v>-9.456414999923989</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.8465118832632365</v>
+        <v>-0.9044285071796098</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.14500045461401</v>
+        <v>-4.928890561822221</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-7.677452207337201</v>
+        <v>-7.562999464838413</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.77392469732149</v>
+        <v>4.102611884257064</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.394879928982353</v>
+        <v>1.759875089334038</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.207070448927318</v>
+        <v>-1.262468359297419</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.049001257009274</v>
+        <v>6.617962342694912</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.1875435934623359</v>
+        <v>-0.03733757264755985</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-3.594203146103218</v>
+        <v>-3.285208221577</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.232538230763812</v>
+        <v>4.31891284962594</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.3089276911996156</v>
+        <v>-0.1231043054462293</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-3.342709694433125</v>
+        <v>-3.147180824062876</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1408073603851223</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3193190155289635</v>
+        <v>-0.3193190155289634</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.207172539967886</v>
@@ -974,7 +974,7 @@
         <v>-0.2242308577119997</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4085716387236468</v>
+        <v>-0.4085716387236469</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1182526905722832</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2214510161597683</v>
+        <v>-0.2038222249552472</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3505325644472524</v>
+        <v>-0.3503805318450784</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.483381233137724</v>
+        <v>-0.4811104751736258</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02102091241927023</v>
+        <v>-0.05421943210473782</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4083485680814537</v>
+        <v>-0.3953953392513685</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5245376902802809</v>
+        <v>-0.5354009629257074</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05460771588411595</v>
+        <v>-0.05637106657756565</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3265907747566144</v>
+        <v>-0.3206658909461839</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4799588041481128</v>
+        <v>-0.4731449940019442</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3108331708447342</v>
+        <v>0.3510067914993364</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1242292760373566</v>
+        <v>0.1490754340131251</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.09555801437425131</v>
+        <v>-0.1063142366557046</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5120170788631923</v>
+        <v>0.480995276457627</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.01317910515741417</v>
+        <v>-0.00258210526330112</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2631606144985296</v>
+        <v>-0.2450045864136786</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3154734219896485</v>
+        <v>0.3260460626379802</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.02082862224494135</v>
+        <v>-0.01384846362872854</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2540938026163996</v>
+        <v>-0.237014089831867</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-6.13792508382789</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-4.315894782882672</v>
+        <v>-4.315894782882674</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.3011767344729688</v>
@@ -1092,7 +1092,7 @@
         <v>-6.351023616558694</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-4.290320896264753</v>
+        <v>-4.290320896264756</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.947585994560471</v>
+        <v>-5.994287532406728</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.08076619571916</v>
+        <v>-10.51676332326342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.050011283653946</v>
+        <v>-8.277293521161127</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.650843845445528</v>
+        <v>-3.805306346703994</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.23596261037236</v>
+        <v>-9.846123484999955</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.947996775454945</v>
+        <v>-8.021332002703902</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.584444639930839</v>
+        <v>-3.326055144084527</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.192900070162834</v>
+        <v>-9.222563021754155</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-6.898117708877375</v>
+        <v>-6.818968053243019</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.694278587771311</v>
+        <v>2.647328036674048</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.701595242494317</v>
+        <v>-2.490918192082431</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.5852743347986535</v>
+        <v>-0.6297557200815483</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.803593500426167</v>
+        <v>4.802063103441849</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.974127391051712</v>
+        <v>-2.179241868407596</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.8677972885930085</v>
+        <v>-0.7306006873849339</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.668764981219115</v>
+        <v>2.720854684268418</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-3.472614957913051</v>
+        <v>-3.63105340399051</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.601280166388309</v>
+        <v>-1.572690252145181</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.3684420016404695</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.259070759410973</v>
+        <v>-0.2590707594109731</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.01920176108527046</v>
@@ -1197,7 +1197,7 @@
         <v>-0.4049145374574599</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2735328044956047</v>
+        <v>-0.2735328044956049</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.353178580206807</v>
+        <v>-0.3544785474102498</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6367449757044275</v>
+        <v>-0.6238639388467987</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4760083314867343</v>
+        <v>-0.4839505370155201</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1961793549685794</v>
+        <v>-0.2013612248399324</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5519440446551958</v>
+        <v>-0.5345967699864778</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4269426256193031</v>
+        <v>-0.4219649456703953</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.203978882965158</v>
+        <v>-0.198903388455278</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5317059452821484</v>
+        <v>-0.5394722880319163</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4003429263804961</v>
+        <v>-0.3934467476130185</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2186440791502894</v>
+        <v>0.2191229913851934</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2132591729642938</v>
+        <v>-0.174629436459655</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.0451417974186625</v>
+        <v>-0.04872581709633074</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3322347478241747</v>
+        <v>0.3378954496550958</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.13306589262819</v>
+        <v>-0.1493506399915044</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.06272139183055089</v>
+        <v>-0.04201664648805233</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1896488241093339</v>
+        <v>0.1946583103376842</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2474964909208455</v>
+        <v>-0.2558426639282044</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1152660438879162</v>
+        <v>-0.1144706818687156</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-3.464136488915522</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.747059973157908</v>
+        <v>-1.747059973157905</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.01075043462595</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4081422503467911</v>
+        <v>0.4782327963164302</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.833790755344374</v>
+        <v>-3.748838987098636</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.410577135139516</v>
+        <v>-3.15342636971499</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.309707702353044</v>
+        <v>-1.475316680946472</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.057911462620481</v>
+        <v>-6.652339963068665</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.945583075971688</v>
+        <v>-4.992847313716848</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4679689774873654</v>
+        <v>0.3744748355775611</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.423148031452742</v>
+        <v>-4.472287486213087</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.171218866948287</v>
+        <v>-3.447603166732351</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.561715365201556</v>
+        <v>7.617857876944141</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.777771472917583</v>
+        <v>3.011446999728685</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.704342706407092</v>
+        <v>2.984625615993109</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.539787583717183</v>
+        <v>5.429062867740575</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07113501828836973</v>
+        <v>0.2108196822947291</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.086483942209888</v>
+        <v>1.364633241673734</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.633072851791614</v>
+        <v>5.451355582857468</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1879020997424297</v>
+        <v>0.285784719741943</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.116732129971848</v>
+        <v>1.060066651886533</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.2243584198176942</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1131501648848601</v>
+        <v>-0.1131501648848599</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2180206525132751</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.02922478058294643</v>
+        <v>0.03485878638393067</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2846090156221511</v>
+        <v>-0.2762841866154307</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2525747612616309</v>
+        <v>-0.2336370925983602</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.07520857081325735</v>
+        <v>-0.08424436355958008</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3997148855755947</v>
+        <v>-0.3888687541344907</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2781326702413749</v>
+        <v>-0.289438166911759</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0351940096287828</v>
+        <v>0.02339988458981723</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2935083825859564</v>
+        <v>-0.2985369020132452</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2149041451243675</v>
+        <v>-0.2283028133909233</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7581628752237856</v>
+        <v>0.7250522119014013</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2812058315426976</v>
+        <v>0.2779342222555345</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2598078255153338</v>
+        <v>0.2994549700967524</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3970435422915329</v>
+        <v>0.3934108537150791</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.004985417351868482</v>
+        <v>0.007711441999929007</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08143785612760311</v>
+        <v>0.1020143519907376</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4484228146418993</v>
+        <v>0.431324664588344</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.01544686677775049</v>
+        <v>0.02357378563535712</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.08786716312331318</v>
+        <v>0.08396244786210244</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-2.943121830219048</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.222131948542466</v>
+        <v>-3.222131948542463</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.099990169561461</v>
@@ -1520,7 +1520,7 @@
         <v>-3.773344243290153</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-3.686310056444345</v>
+        <v>-3.686310056444343</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.5997490917088869</v>
+        <v>-0.4939251958252591</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.640777391337469</v>
+        <v>-4.711588236716109</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.94411589485164</v>
+        <v>-4.870241963331526</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.01324393167449187</v>
+        <v>0.07263834672989408</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.299766986532764</v>
+        <v>-6.320563881317834</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.703055295794117</v>
+        <v>-5.817366852432634</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.5187726227143941</v>
+        <v>0.3253226008185416</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.139609574554042</v>
+        <v>-5.062301575753138</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.778791259759657</v>
+        <v>-4.844478864659163</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.452623990340822</v>
+        <v>3.331846078388609</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.9069342716405002</v>
+        <v>-1.158572905630521</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.522156343907222</v>
+        <v>-1.528044300255806</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.028284240483909</v>
+        <v>3.936531101314138</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-2.503412937691024</v>
+        <v>-2.613881188058371</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-2.452069943410273</v>
+        <v>-2.626051140878374</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.149959040294117</v>
+        <v>3.06229085505321</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.585399190797043</v>
+        <v>-2.360021585237063</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-2.522609130778654</v>
+        <v>-2.583477578886113</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.2165313802265253</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2370587146363412</v>
+        <v>-0.237058714636341</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1301598446214244</v>
@@ -1616,7 +1616,7 @@
         <v>-0.2788971442786082</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2519880283288629</v>
+        <v>-0.2519880283288628</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1168461068219988</v>
@@ -1625,7 +1625,7 @@
         <v>-0.2526843499181399</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.246856051330516</v>
+        <v>-0.2468560513305159</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.0419414319453067</v>
+        <v>-0.03686085973869898</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3256034781956105</v>
+        <v>-0.325717103103029</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3411521087322494</v>
+        <v>-0.3328166640952088</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.0005661697928384188</v>
+        <v>0.003845386511009168</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3691416805238953</v>
+        <v>-0.3684535450994642</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3297917662108486</v>
+        <v>-0.3409173647792048</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03094505039443382</v>
+        <v>0.02171504758329745</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3304034181044475</v>
+        <v>-0.3246287920798023</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3049914876734451</v>
+        <v>-0.3066772562083208</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2712276718968802</v>
+        <v>0.2582628017085479</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.07667775064628281</v>
+        <v>-0.0948357729166855</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1252149986371976</v>
+        <v>-0.1218344708510655</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2679429712914093</v>
+        <v>0.2554524615728237</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1664488778885224</v>
+        <v>-0.1678645060254102</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.16416605299152</v>
+        <v>-0.1737729201002098</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2212525877202754</v>
+        <v>0.2177721052961567</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1789447651538925</v>
+        <v>-0.1646922608429473</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1751561077281219</v>
+        <v>-0.179441234814034</v>
       </c>
     </row>
     <row r="34">
